--- a/positions.xlsx
+++ b/positions.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,7 +384,97 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.583045</t>
+          <t>0.040041</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.061339</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.04219</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.137089</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.101683</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.056507</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.05839</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.040633</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.037811</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.016227</t>
         </is>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,97 +384,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.040041</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.061339</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.04219</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.137089</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.101683</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.056507</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.05839</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.040633</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.037811</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.016227</t>
+          <t>2269.707275</t>
         </is>
       </c>
     </row>
